--- a/v0.7/StructureDefinition-HCXInsurancePlan.xlsx
+++ b/v0.7/StructureDefinition-HCXInsurancePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hcx-base-url/StructureDefinition/InsurancePlan</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXInsurancePlan.html</t>
   </si>
   <si>
     <t>Version</t>
@@ -919,17 +919,21 @@
     <t>proofOfIdDocuments</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://https://hcx-base-url/StructureDefinition/HCXProofOfIdentificationExtension}
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXProofOfIdentificationExtension.html}
 </t>
   </si>
   <si>
     <t>List of documents for Proof of Identification.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>proofOfPresenceDocuments</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://https://hcx-base-url/StructureDefinition/HCXProofOfPresenceExtension}
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXProofOfPresenceExtension.html}
 </t>
   </si>
   <si>
@@ -1070,7 +1074,7 @@
     <t>clinicalDiagnosticDocuments</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://https://hcx-base-url/StructureDefinition/HCXDiagnosticDocumentsExtension}
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.html}
 </t>
   </si>
   <si>
@@ -1080,7 +1084,7 @@
     <t>informationalMessages</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://https://hcx-base-url/StructureDefinition/HCXInformationalMessagesExtension}
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXInformationalMessagesExtension.html}
 </t>
   </si>
   <si>
@@ -1090,7 +1094,7 @@
     <t>questionnnaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://https://hcx-base-url/StructureDefinition/HCXQuestionnairesExtension}
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXQuestionnairesExtension.html}
 </t>
   </si>
   <si>
@@ -1467,14 +1471,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="64.58203125" customWidth="true" bestFit="true"/>
@@ -1497,7 +1501,7 @@
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.43359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
@@ -6829,7 +6833,7 @@
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>129</v>
@@ -6846,7 +6850,7 @@
         <v>285</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>71</v>
@@ -6868,13 +6872,13 @@
         <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6934,7 +6938,7 @@
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>129</v>
@@ -6948,7 +6952,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7055,7 +7059,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7084,7 +7088,7 @@
         <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7135,7 +7139,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7184,10 +7188,10 @@
         <v>153</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7238,7 +7242,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7261,7 +7265,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7290,7 +7294,7 @@
         <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7341,7 +7345,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7364,7 +7368,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7446,7 +7450,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7495,10 +7499,10 @@
         <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7549,7 +7553,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7572,7 +7576,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7675,7 +7679,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7780,7 +7784,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7887,7 +7891,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7913,10 +7917,10 @@
         <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7967,7 +7971,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -7990,7 +7994,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8013,13 +8017,13 @@
         <v>71</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8070,7 +8074,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8093,7 +8097,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8116,13 +8120,13 @@
         <v>71</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8173,7 +8177,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8196,7 +8200,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8222,10 +8226,10 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8276,7 +8280,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8299,7 +8303,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8325,10 +8329,10 @@
         <v>188</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8379,7 +8383,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8402,7 +8406,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8505,7 +8509,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8610,7 +8614,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8717,7 +8721,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8743,10 +8747,10 @@
         <v>153</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8797,7 +8801,7 @@
         <v>71</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -8820,7 +8824,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8846,10 +8850,10 @@
         <v>188</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8900,7 +8904,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -8923,7 +8927,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9026,7 +9030,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9127,10 +9131,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>71</v>
@@ -9152,13 +9156,13 @@
         <v>71</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9218,7 +9222,7 @@
         <v>73</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>129</v>
@@ -9232,10 +9236,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>71</v>
@@ -9257,13 +9261,13 @@
         <v>71</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9323,7 +9327,7 @@
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>129</v>
@@ -9337,10 +9341,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>71</v>
@@ -9362,13 +9366,13 @@
         <v>71</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9428,7 +9432,7 @@
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>129</v>
@@ -9442,7 +9446,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9549,7 +9553,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9575,10 +9579,10 @@
         <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9629,7 +9633,7 @@
         <v>71</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -9652,7 +9656,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9678,10 +9682,10 @@
         <v>188</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9732,7 +9736,7 @@
         <v>71</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
@@ -9755,7 +9759,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9858,7 +9862,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9963,7 +9967,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10070,7 +10074,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10096,10 +10100,10 @@
         <v>153</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10150,7 +10154,7 @@
         <v>71</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -10173,7 +10177,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10199,10 +10203,10 @@
         <v>153</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10232,10 +10236,10 @@
         <v>147</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>71</v>
@@ -10253,7 +10257,7 @@
         <v>71</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
@@ -10276,7 +10280,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10302,10 +10306,10 @@
         <v>153</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10356,7 +10360,7 @@
         <v>71</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
@@ -10379,7 +10383,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10405,10 +10409,10 @@
         <v>273</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10459,7 +10463,7 @@
         <v>71</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>

--- a/v0.7/StructureDefinition-HCXInsurancePlan.xlsx
+++ b/v0.7/StructureDefinition-HCXInsurancePlan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
